--- a/data/trans_orig/P65-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P65-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A13FCA-5912-4C48-9A54-6E3F59D25DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{240CED82-B171-41AC-81C3-C9B24D8ABFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFDA1CCD-DD25-4FEB-90E1-0E80AFD9710A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE6329F4-93A6-4EFE-9B71-457C9B2FC33C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="783">
   <si>
     <t>Población según el número de empleados que tiene la empresa donde trabaja en 2007 (Tasa respuesta: 33,68%)</t>
   </si>
@@ -716,13 +716,13 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -731,1630 +731,1633 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>2,59%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>Población según el número de empleados que tiene la empresa donde trabaja en 2015 (Tasa respuesta: 31,79%)</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>Población según el número de empleados que tiene la empresa donde trabaja en 2023 (Tasa respuesta: 35,4%)</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>Población según el número de empleados que tiene la empresa donde trabaja en 2015 (Tasa respuesta: 31,79%)</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>Población según el número de empleados que tiene la empresa donde trabaja en 2023 (Tasa respuesta: 35,4%)</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>29,14%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>27,43%</t>
   </si>
   <si>
-    <t>25,59%</t>
+    <t>25,66%</t>
   </si>
   <si>
     <t>29,48%</t>
@@ -2363,22 +2366,28 @@
     <t>15,14%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>20,61%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>18,08%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
 </sst>
 </file>
@@ -2790,7 +2799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99591ECF-A745-47F9-BC55-6C3AA9001CB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F774A-D1AA-4211-A7FE-96A706B3181E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4357,7 +4366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1399ECA2-B091-4A2A-810F-533EC629382A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CBE4B3-6A22-4A4B-9521-499C57C8C50D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4550,10 +4559,10 @@
         <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -4565,10 +4574,10 @@
         <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4592,13 @@
         <v>4188</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4598,13 +4607,13 @@
         <v>3132</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4613,13 +4622,13 @@
         <v>7320</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,10 +4646,10 @@
         <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4649,13 +4658,13 @@
         <v>22178</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4664,13 +4673,13 @@
         <v>48719</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4694,13 @@
         <v>71370</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -4700,13 +4709,13 @@
         <v>39300</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
@@ -4715,13 +4724,13 @@
         <v>110671</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4745,13 @@
         <v>65829</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -4751,13 +4760,13 @@
         <v>52408</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>112</v>
@@ -4766,13 +4775,13 @@
         <v>118237</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4849,13 @@
         <v>80195</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4855,13 +4864,13 @@
         <v>32186</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -4870,13 +4879,13 @@
         <v>112381</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4900,13 @@
         <v>59957</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -4906,13 +4915,13 @@
         <v>32573</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
@@ -4921,13 +4930,13 @@
         <v>92530</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4951,13 @@
         <v>34310</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4960,10 +4969,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4972,13 +4981,13 @@
         <v>73002</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +5002,13 @@
         <v>152491</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -5008,10 +5017,10 @@
         <v>57854</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>301</v>
@@ -5023,13 +5032,13 @@
         <v>210345</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5053,13 @@
         <v>329236</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H15" s="7">
         <v>195</v>
@@ -5059,13 +5068,13 @@
         <v>204941</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M15" s="7">
         <v>509</v>
@@ -5074,13 +5083,13 @@
         <v>534177</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5104,13 @@
         <v>162483</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -5110,13 +5119,13 @@
         <v>146260</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>290</v>
@@ -5128,10 +5137,10 @@
         <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5208,13 @@
         <v>36213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5214,13 +5223,13 @@
         <v>32504</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -5229,13 +5238,13 @@
         <v>68717</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5259,13 @@
         <v>24320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5265,13 +5274,13 @@
         <v>12883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5280,13 +5289,13 @@
         <v>37202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5310,13 @@
         <v>21967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5316,13 +5325,13 @@
         <v>11262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5331,13 +5340,13 @@
         <v>33230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5361,13 @@
         <v>56458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -5367,13 +5376,13 @@
         <v>47853</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -5382,13 +5391,13 @@
         <v>104312</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5412,13 @@
         <v>88435</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -5418,13 +5427,13 @@
         <v>47404</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -5433,13 +5442,13 @@
         <v>135839</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5463,13 @@
         <v>40536</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5469,13 +5478,13 @@
         <v>34544</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -5484,13 +5493,13 @@
         <v>75079</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5567,13 @@
         <v>117456</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -5573,13 +5582,13 @@
         <v>66648</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>165</v>
@@ -5591,10 +5600,10 @@
         <v>189</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5618,13 @@
         <v>90223</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -5624,7 +5633,7 @@
         <v>57060</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>380</v>
@@ -5666,7 +5675,7 @@
         <v>386</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>387</v>
+        <v>274</v>
       </c>
       <c r="H27" s="7">
         <v>47</v>
@@ -5675,13 +5684,13 @@
         <v>53087</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
@@ -5690,13 +5699,13 @@
         <v>113552</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5720,13 @@
         <v>235491</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>119</v>
@@ -5726,13 +5735,13 @@
         <v>127885</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>342</v>
@@ -5741,13 +5750,13 @@
         <v>363376</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5807,7 @@
         <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5822,13 @@
         <v>268848</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H30" s="7">
         <v>215</v>
@@ -5828,13 +5837,13 @@
         <v>233211</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>467</v>
@@ -5843,13 +5852,13 @@
         <v>502059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>246</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,7 +5933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62682CC8-9B5F-4E6E-AE42-77EF1F3A610C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADF158A-27C1-4577-A403-CC999A29BFF8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5941,7 +5950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6048,13 +6057,13 @@
         <v>5017</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>420</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6063,13 +6072,13 @@
         <v>1845</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6078,13 +6087,13 @@
         <v>6862</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6108,13 @@
         <v>7330</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6156,7 +6165,7 @@
         <v>433</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -6165,10 +6174,10 @@
         <v>7609</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>436</v>
@@ -6180,7 +6189,7 @@
         <v>13185</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>437</v>
@@ -6309,7 +6318,7 @@
         <v>458</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>459</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -6318,13 +6327,13 @@
         <v>22296</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -6333,13 +6342,13 @@
         <v>45984</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,10 +6419,10 @@
         <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -6422,13 +6431,13 @@
         <v>47779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>114</v>
@@ -6437,13 +6446,13 @@
         <v>124999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6467,13 @@
         <v>47566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -6473,13 +6482,13 @@
         <v>26334</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -6488,13 +6497,13 @@
         <v>73900</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6518,13 @@
         <v>42837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -6524,13 +6533,13 @@
         <v>32837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -6542,10 +6551,10 @@
         <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>486</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,10 +6572,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -6575,10 +6584,10 @@
         <v>104735</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>489</v>
@@ -6662,13 +6671,13 @@
         <v>137959</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -6677,13 +6686,13 @@
         <v>126366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>504</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M16" s="7">
         <v>253</v>
@@ -6692,13 +6701,13 @@
         <v>264325</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,7 +6778,7 @@
         <v>490</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>510</v>
@@ -6787,7 +6796,7 @@
         <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>513</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -6796,10 +6805,10 @@
         <v>122329</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>515</v>
@@ -6850,10 +6859,10 @@
         <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6877,13 @@
         <v>32470</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -6883,10 +6892,10 @@
         <v>14436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>528</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>529</v>
@@ -6904,7 +6913,7 @@
         <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>532</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6928,13 @@
         <v>65336</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H21" s="7">
         <v>65</v>
@@ -6934,13 +6943,13 @@
         <v>67592</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
@@ -6949,13 +6958,13 @@
         <v>132927</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6979,13 @@
         <v>86225</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -6985,13 +6994,13 @@
         <v>75837</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M22" s="7">
         <v>153</v>
@@ -7000,13 +7009,13 @@
         <v>162062</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7030,13 @@
         <v>40515</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -7039,7 +7048,7 @@
         <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>553</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>554</v>
@@ -7054,7 +7063,7 @@
         <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>518</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>556</v>
@@ -7131,7 +7140,7 @@
         <v>558</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>367</v>
+        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -7140,13 +7149,13 @@
         <v>107848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M25" s="7">
         <v>234</v>
@@ -7155,10 +7164,10 @@
         <v>254190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>564</v>
@@ -7176,13 +7185,13 @@
         <v>72302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -7191,13 +7200,13 @@
         <v>51542</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>568</v>
+        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>569</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -7206,10 +7215,10 @@
         <v>123844</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>571</v>
@@ -7242,13 +7251,13 @@
         <v>54881</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M27" s="7">
         <v>127</v>
@@ -7260,10 +7269,10 @@
         <v>176</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>577</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,13 +7287,13 @@
         <v>294379</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>581</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>180</v>
@@ -7293,13 +7302,13 @@
         <v>181416</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>399</v>
+        <v>580</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>581</v>
       </c>
       <c r="M28" s="7">
         <v>456</v>
@@ -7308,13 +7317,13 @@
         <v>475796</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>584</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>585</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7338,13 @@
         <v>483726</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H29" s="7">
         <v>331</v>
@@ -7344,13 +7353,13 @@
         <v>336614</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M29" s="7">
         <v>788</v>
@@ -7359,13 +7368,13 @@
         <v>820340</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7389,13 @@
         <v>202162</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>596</v>
+        <v>428</v>
       </c>
       <c r="H30" s="7">
         <v>171</v>
@@ -7395,13 +7404,13 @@
         <v>175566</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>511</v>
+        <v>596</v>
       </c>
       <c r="M30" s="7">
         <v>359</v>
@@ -7410,13 +7419,13 @@
         <v>377728</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,7 +7500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6534B16-5249-4CEC-94C1-581E827585CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C21547B-9581-45F1-9A75-D3DED5F689A9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7508,7 +7517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7615,13 +7624,13 @@
         <v>4629</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>605</v>
+        <v>524</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7630,13 +7639,13 @@
         <v>3853</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -7645,13 +7654,13 @@
         <v>8483</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>608</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7675,13 @@
         <v>5100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7681,13 +7690,13 @@
         <v>3371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>610</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -7696,13 +7705,13 @@
         <v>8471</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7726,13 @@
         <v>9172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>617</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -7732,13 +7741,13 @@
         <v>5300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -7747,13 +7756,13 @@
         <v>14473</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7777,13 @@
         <v>44607</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -7783,13 +7792,13 @@
         <v>12521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -7798,13 +7807,13 @@
         <v>57128</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7828,13 @@
         <v>39221</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -7834,13 +7843,13 @@
         <v>24820</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M8" s="7">
         <v>85</v>
@@ -7849,13 +7858,13 @@
         <v>64041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>538</v>
+        <v>636</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7879,13 @@
         <v>20441</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -7977,7 +7986,7 @@
         <v>647</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>467</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>648</v>
@@ -7989,13 +7998,13 @@
         <v>79687</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>650</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>651</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>195</v>
@@ -8004,13 +8013,13 @@
         <v>191463</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,13 +8034,13 @@
         <v>61180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>656</v>
+        <v>390</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -8043,10 +8052,10 @@
         <v>146</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>656</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -8058,10 +8067,10 @@
         <v>522</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8085,13 @@
         <v>124488</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -8091,13 +8100,13 @@
         <v>69343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>665</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
@@ -8106,13 +8115,13 @@
         <v>193831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>668</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8136,13 @@
         <v>301762</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>671</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>672</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>251</v>
@@ -8142,13 +8151,13 @@
         <v>190430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M14" s="7">
         <v>520</v>
@@ -8160,10 +8169,10 @@
         <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>673</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8187,13 @@
         <v>297342</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H15" s="7">
         <v>306</v>
@@ -8193,13 +8202,13 @@
         <v>244361</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="M15" s="7">
         <v>589</v>
@@ -8208,13 +8217,13 @@
         <v>541703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>439</v>
+        <v>677</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,13 +8238,13 @@
         <v>149174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -8244,13 +8253,13 @@
         <v>132160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>688</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
@@ -8259,13 +8268,13 @@
         <v>281335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>599</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8342,13 @@
         <v>87316</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>535</v>
+        <v>688</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -8348,13 +8357,13 @@
         <v>81075</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="M18" s="7">
         <v>180</v>
@@ -8363,13 +8372,13 @@
         <v>168392</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>698</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8384,13 +8393,13 @@
         <v>30571</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -8399,13 +8408,13 @@
         <v>31792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -8414,13 +8423,13 @@
         <v>62363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>697</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,13 +8444,13 @@
         <v>33268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>707</v>
+        <v>529</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -8450,13 +8459,13 @@
         <v>30113</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>704</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -8465,13 +8474,13 @@
         <v>63381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>706</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>713</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8486,13 +8495,13 @@
         <v>102268</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>514</v>
+        <v>709</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H21" s="7">
         <v>124</v>
@@ -8501,13 +8510,13 @@
         <v>85487</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>712</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="M21" s="7">
         <v>217</v>
@@ -8516,13 +8525,13 @@
         <v>187756</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8537,13 +8546,13 @@
         <v>69556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -8552,13 +8561,13 @@
         <v>91500</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>725</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="M22" s="7">
         <v>189</v>
@@ -8567,13 +8576,13 @@
         <v>161055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,13 +8597,13 @@
         <v>66248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H23" s="7">
         <v>87</v>
@@ -8603,13 +8612,13 @@
         <v>60521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
@@ -8618,13 +8627,13 @@
         <v>126768</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>731</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8692,13 +8701,13 @@
         <v>203722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
@@ -8707,13 +8716,13 @@
         <v>164616</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="M25" s="7">
         <v>384</v>
@@ -8722,13 +8731,13 @@
         <v>368338</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>659</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8743,13 +8752,13 @@
         <v>96851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -8758,13 +8767,13 @@
         <v>93603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>746</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>747</v>
       </c>
       <c r="M26" s="7">
         <v>197</v>
@@ -8776,10 +8785,10 @@
         <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>655</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,10 +8806,10 @@
         <v>749</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>177</v>
+        <v>750</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H27" s="7">
         <v>139</v>
@@ -8809,13 +8818,13 @@
         <v>104756</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>641</v>
+        <v>754</v>
       </c>
       <c r="M27" s="7">
         <v>283</v>
@@ -8827,10 +8836,10 @@
         <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8845,13 +8854,13 @@
         <v>448637</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H28" s="7">
         <v>394</v>
@@ -8860,13 +8869,13 @@
         <v>288438</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>759</v>
+        <v>489</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M28" s="7">
         <v>800</v>
@@ -8875,13 +8884,13 @@
         <v>737075</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,13 +8905,13 @@
         <v>406118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H29" s="7">
         <v>461</v>
@@ -8911,13 +8920,13 @@
         <v>360682</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
@@ -8926,13 +8935,13 @@
         <v>766799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8947,13 +8956,13 @@
         <v>235863</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H30" s="7">
         <v>330</v>
@@ -8962,13 +8971,13 @@
         <v>225687</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>778</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="M30" s="7">
         <v>565</v>
@@ -8977,13 +8986,13 @@
         <v>461550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>781</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P65-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P65-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C4892E-B098-4EDB-A4E7-5C2D1487CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD42760F-6996-4AF4-8718-CFB97EB9F8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55D85D76-1BE3-4C59-A690-1950E2D11E89}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3684399F-146B-49BC-B96E-AF927D2F93AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="772">
   <si>
     <t>Población según el número de empleados que tiene la empresa donde trabaja en 2007 (Tasa respuesta: 33,68%)</t>
   </si>
@@ -1850,535 +1850,511 @@
     <t>Población según el número de empleados que tiene la empresa donde trabaja en 2023 (Tasa respuesta: 35,4%)</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>0,96%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>29,99%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
 </sst>
 </file>
@@ -2790,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DFF66C-5012-4763-8C9D-C92CFB9204C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3985A4-B512-4E4C-A6AF-35EE3DB1D04F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3270,7 +3246,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>51941</v>
+        <v>51940</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -3576,7 +3552,7 @@
         <v>856</v>
       </c>
       <c r="D17" s="7">
-        <v>892100</v>
+        <v>892099</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -4357,7 +4333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326CD226-F60F-4E43-9CB1-4B946C31F1BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED9F393-C042-4AF6-8FE7-575E98A1BCEC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5020,7 +4996,7 @@
         <v>198</v>
       </c>
       <c r="N14" s="7">
-        <v>210345</v>
+        <v>210346</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>302</v>
@@ -5173,7 +5149,7 @@
         <v>1252</v>
       </c>
       <c r="N17" s="7">
-        <v>1331178</v>
+        <v>1331179</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -5924,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2459C6-6CA1-4E23-869B-260C2CA6B02B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE6E9D6-234B-4B64-A61B-455199776383}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6623,7 +6599,7 @@
         <v>240</v>
       </c>
       <c r="I15" s="7">
-        <v>243704</v>
+        <v>243703</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>496</v>
@@ -6725,7 +6701,7 @@
         <v>570</v>
       </c>
       <c r="I17" s="7">
-        <v>581754</v>
+        <v>581753</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -7491,7 +7467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85013E4E-7ECA-42C5-8C51-5FF609880E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B750E5-466F-48ED-83CF-471DC0662742}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7612,37 +7588,37 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>4629</v>
+        <v>4511</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3853</v>
+        <v>3466</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>8483</v>
+        <v>7977</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>608</v>
@@ -7651,7 +7627,7 @@
         <v>609</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,28 +7639,28 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>5100</v>
+        <v>4762</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>610</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>611</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>612</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3371</v>
+        <v>3102</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>614</v>
@@ -7693,7 +7669,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>8471</v>
+        <v>7863</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>615</v>
@@ -7714,7 +7690,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>9172</v>
+        <v>8111</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>618</v>
@@ -7723,37 +7699,37 @@
         <v>619</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>620</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>5300</v>
+        <v>4643</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>621</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>14473</v>
+        <v>12755</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>622</v>
+        <v>244</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>474</v>
+        <v>624</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,46 +7741,46 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>44607</v>
+        <v>43854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>12521</v>
+        <v>11421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>630</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>57128</v>
+        <v>55275</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,46 +7792,46 @@
         <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>39221</v>
+        <v>39267</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>24820</v>
+        <v>23081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="M8" s="7">
         <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>64041</v>
+        <v>62349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>639</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,46 +7843,46 @@
         <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>20441</v>
+        <v>20701</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>196</v>
+        <v>645</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>33006</v>
+        <v>28700</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>646</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
       </c>
       <c r="N9" s="7">
-        <v>53446</v>
+        <v>49401</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>645</v>
+        <v>504</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7894,7 @@
         <v>132</v>
       </c>
       <c r="D10" s="7">
-        <v>123170</v>
+        <v>121207</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>69</v>
@@ -7933,7 +7909,7 @@
         <v>115</v>
       </c>
       <c r="I10" s="7">
-        <v>82871</v>
+        <v>74413</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>69</v>
@@ -7948,7 +7924,7 @@
         <v>247</v>
       </c>
       <c r="N10" s="7">
-        <v>206041</v>
+        <v>195621</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>69</v>
@@ -7971,46 +7947,46 @@
         <v>97</v>
       </c>
       <c r="D11" s="7">
-        <v>111777</v>
+        <v>101257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>652</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>648</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>79687</v>
+        <v>70775</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="M11" s="7">
         <v>195</v>
       </c>
       <c r="N11" s="7">
-        <v>191463</v>
+        <v>172032</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>652</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>653</v>
+        <v>576</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>654</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,46 +7998,46 @@
         <v>52</v>
       </c>
       <c r="D12" s="7">
-        <v>61180</v>
+        <v>59963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>58440</v>
+        <v>53490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>658</v>
+        <v>24</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
       </c>
       <c r="N12" s="7">
-        <v>119620</v>
+        <v>113453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>522</v>
+        <v>659</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,46 +8049,46 @@
         <v>107</v>
       </c>
       <c r="D13" s="7">
-        <v>124488</v>
+        <v>115771</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>663</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>69343</v>
+        <v>62786</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
       </c>
       <c r="N13" s="7">
-        <v>193831</v>
+        <v>178557</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,46 +8100,46 @@
         <v>269</v>
       </c>
       <c r="D14" s="7">
-        <v>301762</v>
+        <v>296442</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="H14" s="7">
         <v>251</v>
       </c>
       <c r="I14" s="7">
-        <v>190430</v>
+        <v>199987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>674</v>
+        <v>601</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="M14" s="7">
         <v>520</v>
       </c>
       <c r="N14" s="7">
-        <v>492192</v>
+        <v>496429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>673</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,46 +8151,46 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>297342</v>
+        <v>288418</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>679</v>
+        <v>404</v>
       </c>
       <c r="H15" s="7">
         <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>244361</v>
+        <v>282848</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M15" s="7">
         <v>589</v>
       </c>
       <c r="N15" s="7">
-        <v>541703</v>
+        <v>571266</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>439</v>
+        <v>680</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,46 +8202,46 @@
         <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>149174</v>
+        <v>145012</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>685</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>686</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
       </c>
       <c r="I16" s="7">
-        <v>132160</v>
+        <v>120996</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>688</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
       </c>
       <c r="N16" s="7">
-        <v>281335</v>
+        <v>266009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>599</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,7 +8253,7 @@
         <v>952</v>
       </c>
       <c r="D17" s="7">
-        <v>1045723</v>
+        <v>1006863</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -8292,7 +8268,7 @@
         <v>1018</v>
       </c>
       <c r="I17" s="7">
-        <v>774422</v>
+        <v>790882</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -8307,7 +8283,7 @@
         <v>1970</v>
       </c>
       <c r="N17" s="7">
-        <v>1820145</v>
+        <v>1797745</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -8330,46 +8306,46 @@
         <v>76</v>
       </c>
       <c r="D18" s="7">
-        <v>87316</v>
+        <v>80905</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>535</v>
+        <v>689</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
       </c>
       <c r="I18" s="7">
-        <v>81075</v>
+        <v>72792</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>690</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="M18" s="7">
         <v>180</v>
       </c>
       <c r="N18" s="7">
-        <v>168392</v>
+        <v>153697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,46 +8357,46 @@
         <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>30571</v>
+        <v>34327</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>701</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>31792</v>
+        <v>29201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>703</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>655</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>62363</v>
+        <v>63528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8432,46 +8408,46 @@
         <v>30</v>
       </c>
       <c r="D20" s="7">
-        <v>33268</v>
+        <v>31706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
       </c>
       <c r="I20" s="7">
-        <v>30113</v>
+        <v>28311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
       </c>
       <c r="N20" s="7">
-        <v>63381</v>
+        <v>60017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>712</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8483,46 +8459,46 @@
         <v>93</v>
       </c>
       <c r="D21" s="7">
-        <v>102268</v>
+        <v>100242</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>514</v>
+        <v>707</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="H21" s="7">
         <v>124</v>
       </c>
       <c r="I21" s="7">
-        <v>85487</v>
+        <v>82632</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>710</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="M21" s="7">
         <v>217</v>
       </c>
       <c r="N21" s="7">
-        <v>187756</v>
+        <v>182874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>718</v>
+        <v>515</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,46 +8510,46 @@
         <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>69556</v>
+        <v>68237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
       </c>
       <c r="I22" s="7">
-        <v>91500</v>
+        <v>86694</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="M22" s="7">
         <v>189</v>
       </c>
       <c r="N22" s="7">
-        <v>161055</v>
+        <v>154931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,46 +8561,46 @@
         <v>69</v>
       </c>
       <c r="D23" s="7">
-        <v>66248</v>
+        <v>62388</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="H23" s="7">
         <v>87</v>
       </c>
       <c r="I23" s="7">
-        <v>60521</v>
+        <v>54974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
       </c>
       <c r="N23" s="7">
-        <v>126768</v>
+        <v>117362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>729</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>737</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,7 +8612,7 @@
         <v>360</v>
       </c>
       <c r="D24" s="7">
-        <v>389227</v>
+        <v>377805</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>69</v>
@@ -8651,7 +8627,7 @@
         <v>515</v>
       </c>
       <c r="I24" s="7">
-        <v>380488</v>
+        <v>354604</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>69</v>
@@ -8666,7 +8642,7 @@
         <v>875</v>
       </c>
       <c r="N24" s="7">
-        <v>769714</v>
+        <v>732409</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>69</v>
@@ -8689,46 +8665,46 @@
         <v>177</v>
       </c>
       <c r="D25" s="7">
-        <v>203722</v>
+        <v>186672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>739</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
       </c>
       <c r="I25" s="7">
-        <v>164616</v>
+        <v>147033</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>740</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>741</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="M25" s="7">
         <v>384</v>
       </c>
       <c r="N25" s="7">
-        <v>368338</v>
+        <v>333706</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>735</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,46 +8716,46 @@
         <v>80</v>
       </c>
       <c r="D26" s="7">
-        <v>96851</v>
+        <v>99052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>746</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>747</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
       </c>
       <c r="I26" s="7">
-        <v>93603</v>
+        <v>85792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>739</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>197</v>
       </c>
       <c r="N26" s="7">
-        <v>190454</v>
+        <v>184844</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>740</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>655</v>
+        <v>570</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,46 +8767,46 @@
         <v>144</v>
       </c>
       <c r="D27" s="7">
-        <v>166928</v>
+        <v>155589</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>749</v>
+        <v>563</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>177</v>
+        <v>742</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="H27" s="7">
         <v>139</v>
       </c>
       <c r="I27" s="7">
-        <v>104756</v>
+        <v>95740</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>752</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>641</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>283</v>
       </c>
       <c r="N27" s="7">
-        <v>271684</v>
+        <v>251329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>26</v>
+        <v>745</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,46 +8818,46 @@
         <v>406</v>
       </c>
       <c r="D28" s="7">
-        <v>448637</v>
+        <v>440538</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H28" s="7">
         <v>394</v>
       </c>
       <c r="I28" s="7">
-        <v>288438</v>
+        <v>294040</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="M28" s="7">
         <v>800</v>
       </c>
       <c r="N28" s="7">
-        <v>737075</v>
+        <v>734578</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8893,46 +8869,46 @@
         <v>402</v>
       </c>
       <c r="D29" s="7">
-        <v>406118</v>
+        <v>395922</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>765</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="H29" s="7">
         <v>461</v>
       </c>
       <c r="I29" s="7">
-        <v>360682</v>
+        <v>392624</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>768</v>
+        <v>541</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
       </c>
       <c r="N29" s="7">
-        <v>766799</v>
+        <v>788546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,46 +8920,46 @@
         <v>235</v>
       </c>
       <c r="D30" s="7">
-        <v>235863</v>
+        <v>228101</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="H30" s="7">
         <v>330</v>
       </c>
       <c r="I30" s="7">
-        <v>225687</v>
+        <v>204670</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>768</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="M30" s="7">
         <v>565</v>
       </c>
       <c r="N30" s="7">
-        <v>461550</v>
+        <v>432772</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8995,7 +8971,7 @@
         <v>1444</v>
       </c>
       <c r="D31" s="7">
-        <v>1558119</v>
+        <v>1505875</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>69</v>
@@ -9010,7 +8986,7 @@
         <v>1648</v>
       </c>
       <c r="I31" s="7">
-        <v>1237781</v>
+        <v>1219899</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>69</v>
@@ -9025,7 +9001,7 @@
         <v>3092</v>
       </c>
       <c r="N31" s="7">
-        <v>2795900</v>
+        <v>2725774</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>69</v>
